--- a/brochures/excel/offshore/region-3/AIBT.xlsx
+++ b/brochures/excel/offshore/region-3/AIBT.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
+    <workbookView xWindow="4785" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
   </bookViews>
   <sheets>
-    <sheet name="promotions" sheetId="1" r:id="rId1"/>
+    <sheet name="brochures" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,19 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>link</t>
   </si>
+  <si>
+    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/region-3/aibt/AIBT_Region3_Q2_Brochure_1APR-30JUN22_VOL1.0.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIBT Region3 Q2 Brochure 1APR-30JUN 22_VOL1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +67,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,16 +93,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -385,9 +404,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>